--- a/17_TwigFarm/Gcon_Diff/input.xlsx
+++ b/17_TwigFarm/Gcon_Diff/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihyeoh/Desktop/Desktop - Jeewon의 iMac/GIT/TIL/17_TwigFarm/Gcon_Diff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98D65E-7C23-824E-B041-F2DFC2034E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C130459-D09E-7442-A657-ACBCCF3E4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="500" windowWidth="17800" windowHeight="27680" xr2:uid="{2CFB5F44-2109-AD41-BABE-68BAECFA5D97}"/>
   </bookViews>
@@ -87,12 +87,6 @@
     <t>How big is the meeting room?</t>
   </si>
   <si>
-    <t>How did you learn of this position at SnowWhite Press?</t>
-  </si>
-  <si>
-    <t>How did you learn of this position at SnowPooh Press?</t>
-  </si>
-  <si>
     <t>Why don’t you know to the beach with us?</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>How should we honor Mr. Chan when he retires?</t>
   </si>
   <si>
-    <t>Who’s about to set up the table and chairs for the conference?</t>
-  </si>
-  <si>
     <t>Who’s meeting to set up the desk and chairs for the conference?</t>
   </si>
   <si>
@@ -270,10 +261,19 @@
     <t>How did you learn of me?</t>
   </si>
   <si>
-    <t>How did you know pf me?</t>
-  </si>
-  <si>
-    <t>How did you take pf me?</t>
+    <t>How did you know this position at SnowPooh Press?</t>
+  </si>
+  <si>
+    <t>How did you get this position at SnowWhite Press?</t>
+  </si>
+  <si>
+    <t>How did you know  me?</t>
+  </si>
+  <si>
+    <t>How did you take of me?</t>
+  </si>
+  <si>
+    <t>Who’s wanna to set up the table and chairs for the conference?</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D90C7A1-59B2-9C4E-9D3B-9AA1E2BCDB44}">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="237" zoomScaleNormal="237" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,7 +675,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -720,12 +720,12 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -735,12 +735,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
@@ -750,12 +750,12 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -765,27 +765,27 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
@@ -795,42 +795,42 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
@@ -840,12 +840,12 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -855,12 +855,12 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
@@ -870,222 +870,222 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
